--- a/DATA_goal/Junction_Flooding_94.xlsx
+++ b/DATA_goal/Junction_Flooding_94.xlsx
@@ -443,21 +443,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -655,103 +655,103 @@
         <v>41526.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.88</v>
+        <v>2.99</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.44</v>
+        <v>2.24</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.97</v>
+        <v>3.2</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>158.58</v>
+        <v>15.86</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.18</v>
+        <v>3.02</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.33</v>
+        <v>1.93</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.93</v>
+        <v>2.89</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41526.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.94</v>
+        <v>2.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.45</v>
+        <v>0.64</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="AE3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="AF3" s="4" t="n">
-        <v>12.02</v>
-      </c>
       <c r="AG3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41526.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.85</v>
+        <v>1.59</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.71</v>
+        <v>3.47</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.86</v>
+        <v>2.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.31</v>
+        <v>4.43</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="N4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
         <v>4.01</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>17.62</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>182.64</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>40.12</v>
-      </c>
       <c r="AG4" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41526.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.95</v>
+        <v>0.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.53</v>
+        <v>7.85</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.04</v>
+        <v>2.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41526.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>22.16</v>
+        <v>2.22</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>76.20999999999999</v>
+        <v>7.62</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>4.75</v>
+        <v>0.48</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>20.23</v>
+        <v>2.02</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41526.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>16.36</v>
+        <v>1.64</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12.19</v>
+        <v>1.22</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>35.75</v>
+        <v>3.58</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>29.13</v>
+        <v>2.91</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>47.39</v>
+        <v>4.74</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>188.38</v>
+        <v>18.84</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>35.88</v>
+        <v>3.59</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>24.1</v>
+        <v>2.41</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>23.44</v>
+        <v>2.34</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>42.98</v>
+        <v>4.3</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41526.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>32.41</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>46.03</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>8.02</v>
-      </c>
       <c r="K8" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>170.08</v>
+        <v>17.01</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.62</v>
+        <v>3.26</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.92</v>
+        <v>2.19</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>22.36</v>
+        <v>2.24</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>41.94</v>
+        <v>4.19</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.05</v>
+        <v>0.61</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41526.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>37.63</v>
+        <v>3.76</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>30.79</v>
+        <v>3.08</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>52.72</v>
+        <v>5.27</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.82</v>
+        <v>1.38</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>198.69</v>
+        <v>19.87</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>37.85</v>
+        <v>3.78</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>25.49</v>
+        <v>2.55</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>25.66</v>
+        <v>2.57</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>47.92</v>
+        <v>4.79</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41526.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>29.06</v>
+        <v>2.91</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>23.74</v>
+        <v>2.37</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>42.34</v>
+        <v>4.23</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>151.77</v>
+        <v>15.18</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>29.28</v>
+        <v>2.93</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>38.56</v>
+        <v>3.86</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_94.xlsx
+++ b/DATA_goal/Junction_Flooding_94.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,340 +652,340 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41526.34027777778</v>
+        <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>2.99</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>2.24</v>
-      </c>
       <c r="G2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.2</v>
+        <v>4.36</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.29</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.89</v>
+        <v>1.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.82</v>
+        <v>1.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.89</v>
+        <v>3.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41526.34722222222</v>
+        <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.27</v>
+        <v>1.92</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.37</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.6</v>
+        <v>4.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.36</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.51</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.18</v>
-      </c>
       <c r="AB3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>1.3</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.23</v>
+        <v>1.74</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.2</v>
+        <v>5.24</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.77</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.25</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41526.35416666666</v>
+        <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.47</v>
+        <v>4.17</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.79</v>
+        <v>3.39</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.43</v>
+        <v>5.9</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.93</v>
+        <v>2.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>1.39</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
+      <c r="W4" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>4.01</v>
+        <v>5.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41526.36111111111</v>
+        <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.49</v>
+        <v>2.64</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>0.87</v>
@@ -1000,7 +1000,7 @@
         <v>0.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.18</v>
@@ -1012,7 +1012,7 @@
         <v>0.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.07000000000000001</v>
@@ -1024,7 +1024,7 @@
         <v>7.85</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>0.52</v>
@@ -1036,10 +1036,10 @@
         <v>0.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.46</v>
@@ -1054,10 +1054,10 @@
         <v>0.65</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>0.28</v>
@@ -1068,626 +1068,106 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41526.36805555555</v>
+        <v>44781.95137731481</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>5.28</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.51</v>
+        <v>3.7</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.53</v>
+        <v>11.47</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.21</v>
+        <v>9.07</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.54</v>
+        <v>4.16</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.22</v>
+        <v>18.05</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.85</v>
+        <v>6.4</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.37</v>
+        <v>2.75</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.53</v>
+        <v>3.95</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.61</v>
+        <v>4.61</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.65</v>
+        <v>4.81</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.18</v>
+        <v>1.33</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.55</v>
+        <v>4.14</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.77</v>
+        <v>5.81</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.48</v>
+        <v>3.65</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.33</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>7.62</v>
+        <v>55.62</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.54</v>
+        <v>11.63</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.51</v>
+        <v>3.82</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.02</v>
+        <v>7.65</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.53</v>
+        <v>3.98</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.06</v>
+        <v>8.41</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.45</v>
+        <v>3.37</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.4</v>
+        <v>3.08</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.48</v>
+        <v>3.61</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.64</v>
+        <v>4.8</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.02</v>
+        <v>16.47</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.28</v>
+        <v>2.07</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41526.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41526.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41526.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41526.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41526.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>48.87</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>19.43</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>183.81</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>35.11</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>23.66</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>14.49</v>
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_94.xlsx
+++ b/DATA_goal/Junction_Flooding_94.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.78</v>
+        <v>37.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.36</v>
+        <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.44</v>
+        <v>204.37</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.86</v>
+        <v>38.64</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.53</v>
+        <v>25.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.22</v>
+        <v>22.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.16</v>
+        <v>41.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.36</v>
+        <v>33.59</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.75</v>
+        <v>57.5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.23</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.16</v>
+        <v>221.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.21</v>
+        <v>42.06</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.8</v>
+        <v>27.96</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.82</v>
+        <v>28.16</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.04</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.95</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.37</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.24</v>
+        <v>52.41</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.17</v>
+        <v>41.73</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.39</v>
+        <v>33.89</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.9</v>
+        <v>59.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.32</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.16</v>
+        <v>221.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.21</v>
+        <v>42.07</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.81</v>
+        <v>28.13</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.86</v>
+        <v>28.58</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.95</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.37</v>
+        <v>53.67</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.64</v>
+        <v>26.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.85</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.45</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.19</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.43</v>
+        <v>24.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_94.xlsx
+++ b/DATA_goal/Junction_Flooding_94.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>4.002</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.83</v>
+        <v>37.831</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.945</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.9</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.3</v>
+        <v>13.298</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.88</v>
+        <v>14.882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.46</v>
+        <v>15.457</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.465</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.35</v>
+        <v>19.348</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>12.001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>204.37</v>
+        <v>204.374</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.64</v>
+        <v>38.641</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.29</v>
+        <v>25.287</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.826</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.23</v>
+        <v>22.227</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.137</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.411</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.318</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.05</v>
+        <v>16.052</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.72</v>
+        <v>13.715</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.63</v>
+        <v>41.626</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.59</v>
+        <v>33.594</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>57.5</v>
+        <v>57.505</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.11</v>
+        <v>10.112</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.89</v>
+        <v>14.891</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.45</v>
+        <v>17.448</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.23</v>
+        <v>21.235</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.9</v>
+        <v>12.897</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.56</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.163</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>221.59</v>
+        <v>221.586</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>42.06</v>
+        <v>42.063</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.96</v>
+        <v>27.964</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.54</v>
+        <v>14.542</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>2.62</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.16</v>
+        <v>28.157</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.04</v>
+        <v>11.035</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.95</v>
+        <v>12.953</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.37</v>
+        <v>17.371</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>52.41</v>
+        <v>52.409</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>7.69</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>13.97</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.42</v>
+        <v>1.416</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.73</v>
+        <v>41.727</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33.89</v>
+        <v>33.891</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>59.03</v>
+        <v>59.034</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.23</v>
+        <v>10.235</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.08</v>
+        <v>15.085</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.74</v>
+        <v>16.735</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.59</v>
+        <v>17.591</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.32</v>
+        <v>21.323</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.8</v>
+        <v>12.797</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.06</v>
+        <v>1.064</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.91</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.59</v>
+        <v>221.587</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.07</v>
+        <v>42.073</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.13</v>
+        <v>28.126</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.69</v>
+        <v>14.694</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.41</v>
+        <v>2.405</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.58</v>
+        <v>28.582</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.95</v>
+        <v>10.955</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.87</v>
+        <v>12.866</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>17.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>53.67</v>
+        <v>53.673</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.75</v>
+        <v>7.748</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.62</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_94.xlsx
+++ b/DATA_goal/Junction_Flooding_94.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.21</v>
+        <v>7.206</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.07</v>
+        <v>5.068</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>15.634</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>12.438</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.672</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>26.401</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>8.726000000000001</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.438</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>6.274</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.557</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.639</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.968</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.945</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>78.541</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>15.965</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5.205</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>10.544</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.446</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>12.255</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>4.598</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.189</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4.905</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>6.539</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>24.294</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.834</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.509</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.95137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.62</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>78.54000000000001</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>24.29</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>6.51</v>
+      <c r="Z6" s="4" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_94.xlsx
+++ b/DATA_goal/Junction_Flooding_94.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.206</v>
+        <v>7.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.068</v>
+        <v>5.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.634</v>
+        <v>15.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.438</v>
+        <v>12.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.672</v>
+        <v>5.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.401</v>
+        <v>26.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.726000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.786</v>
+        <v>3.79</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.438</v>
+        <v>5.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.274</v>
+        <v>6.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.557</v>
+        <v>6.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.816</v>
+        <v>1.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.639</v>
+        <v>5.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.968</v>
+        <v>7.97</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.945</v>
+        <v>4.94</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.541</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.965</v>
+        <v>15.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.205</v>
+        <v>5.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.544</v>
+        <v>10.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.446</v>
+        <v>5.45</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.066</v>
+        <v>1.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.255</v>
+        <v>12.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.598</v>
+        <v>4.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.189</v>
+        <v>4.19</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.905</v>
+        <v>4.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.539</v>
+        <v>6.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.294</v>
+        <v>24.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.834</v>
+        <v>2.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.509</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.62</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>
